--- a/src/main/resources/config/template/exportKpiTemplate.xlsx
+++ b/src/main/resources/config/template/exportKpiTemplate.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace\KPI_Report_Latest\kpi-report-app\src\main\resources\config\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780" tabRatio="900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780" tabRatio="900"/>
   </bookViews>
   <sheets>
     <sheet name="BY_CAMPAIGN" sheetId="1" r:id="rId1"/>
     <sheet name="DSM" sheetId="2" r:id="rId2"/>
     <sheet name="SUP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -65,9 +65,6 @@
     <t>above 80%</t>
   </si>
   <si>
-    <t>1st Confirm Sales</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>GPA</t>
+  </si>
+  <si>
+    <t>QA Pass Rate</t>
   </si>
 </sst>
 </file>
@@ -494,15 +494,6 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,6 +515,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,12 +884,12 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="C2" s="50">
         <v>0</v>
       </c>
       <c r="D2" s="7">
@@ -901,7 +901,7 @@
       <c r="F2" s="36">
         <v>0</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="52">
         <v>0</v>
       </c>
       <c r="H2" s="21"/>
@@ -916,9 +916,9 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="38"/>
+        <v>22</v>
+      </c>
+      <c r="C3" s="51"/>
       <c r="D3" s="7">
         <v>0</v>
       </c>
@@ -926,20 +926,20 @@
         <v>0</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="39"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="22"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -993,7 +993,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1064,7 +1064,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="32">
         <v>0.25</v>
@@ -1089,7 +1089,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="32">
         <v>0.25</v>
@@ -1114,7 +1114,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C11" s="32">
         <v>0.25</v>
@@ -1139,7 +1139,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="31">
         <v>1</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>0.2</v>
@@ -1291,7 +1291,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6">
         <v>0.1</v>
@@ -1313,7 +1313,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6">
         <v>0.1</v>
@@ -1335,7 +1335,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -1357,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1371,51 +1371,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>28</v>
+      <c r="A3" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="44"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="44"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
